--- a/X-P_App_183-amizeqiri-CDC.xlsx
+++ b/X-P_App_183-amizeqiri-CDC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps70dji\Desktop\GitHub\P_App_183\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914268BB-3D34-48CE-B1A0-68E0CAB95102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A4B277-63A6-40A2-977A-F9A653440C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Lecture et compréhension du cahier des charges</t>
   </si>
   <si>
-    <t>Création et remplissage du cahier des charges</t>
-  </si>
-  <si>
     <t>P_App_183 - WebStore</t>
   </si>
   <si>
@@ -142,6 +139,24 @@
   </si>
   <si>
     <t>Compréhension du "docker compose" et avance</t>
+  </si>
+  <si>
+    <t>Remplissage du rapport de projet</t>
+  </si>
+  <si>
+    <t>Création et remplissage du journal de travail</t>
+  </si>
+  <si>
+    <t>Remplissage du journal de travail</t>
+  </si>
+  <si>
+    <t>Installation et mise en place de Postman</t>
+  </si>
+  <si>
+    <t>Essais de quelques test sur Postman</t>
+  </si>
+  <si>
+    <t>Avance générale sur l'application, compréhension de l'HTTPS, compréhension de Crypto</t>
   </si>
 </sst>
 </file>
@@ -437,80 +452,6 @@
   <dxfs count="17">
     <dxf>
       <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -673,6 +614,80 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1036,13 +1051,13 @@
                   <c:v>8.6805555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.11805555555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>4.5138888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1054,7 +1069,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3888888888888888E-2</c:v>
+                  <c:v>2.4305555555555556E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1760,18 +1775,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="h." dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Type" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarques/problèmes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1967,7 +1982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:B2"/>
+      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2011,7 +2026,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
@@ -2020,7 +2035,7 @@
       </c>
       <c r="C3" s="25" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 3 heurs 4 minutes</v>
+        <v>0 jours 7 heurs 5 minutes</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="3"/>
@@ -2028,22 +2043,22 @@
         <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="25">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D4" s="25">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="E4" s="52">
         <f>SUM(C4:D4)</f>
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2157,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G9" s="20"/>
       <c r="M9" t="s">
@@ -2171,11 +2186,13 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="39"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="39">
+        <v>45378</v>
+      </c>
       <c r="C10" s="35">
         <v>0</v>
       </c>
@@ -2186,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="17"/>
       <c r="M10" t="s">
@@ -2200,11 +2217,13 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="str">
+      <c r="A11" s="18">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="40"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="40">
+        <v>45378</v>
+      </c>
       <c r="C11" s="36">
         <v>2</v>
       </c>
@@ -2215,7 +2234,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="20"/>
       <c r="M11" t="s">
@@ -2229,14 +2248,25 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="43"/>
-      <c r="F12" s="48"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="39">
+        <v>45399</v>
+      </c>
+      <c r="C12" s="35">
+        <v>0</v>
+      </c>
+      <c r="D12" s="43">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="48" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="17"/>
       <c r="M12" t="s">
         <v>8</v>
@@ -2249,15 +2279,25 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="str">
+      <c r="A13" s="18">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="48"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="39">
+        <v>45399</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0</v>
+      </c>
+      <c r="D13" s="44">
+        <v>20</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="48" t="s">
+        <v>33</v>
+      </c>
       <c r="G13" s="20"/>
       <c r="M13" t="s">
         <v>24</v>
@@ -2270,14 +2310,25 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="43"/>
-      <c r="F14" s="48"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="39">
+        <v>45399</v>
+      </c>
+      <c r="C14" s="35">
+        <v>0</v>
+      </c>
+      <c r="D14" s="43">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="M14" t="s">
         <v>25</v>
@@ -2290,15 +2341,25 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="str">
+      <c r="A15" s="18">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="48"/>
+        <v>16</v>
+      </c>
+      <c r="B15" s="39">
+        <v>45399</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0</v>
+      </c>
+      <c r="D15" s="44">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="20"/>
       <c r="N15">
         <v>8</v>
@@ -2308,14 +2369,25 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="43"/>
-      <c r="F16" s="48"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="39">
+        <v>45399</v>
+      </c>
+      <c r="C16" s="35">
+        <v>2</v>
+      </c>
+      <c r="D16" s="43">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="48" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="O16">
         <v>45</v>
@@ -8267,37 +8339,37 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E14 E16:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="E7:E532">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D532 E15" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D532" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
       <formula1>$O$7:$O$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E14 E16:E532" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E532" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
       <formula1>$M$7:$M$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C532" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
@@ -8364,11 +8436,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C5" s="53" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8376,7 +8448,7 @@
       </c>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>0.11805555555555555</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8386,7 +8458,7 @@
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" s="29" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8394,7 +8466,7 @@
       </c>
       <c r="D6" s="45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -8404,7 +8476,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C7" s="30" t="str">
         <f>'Journal de travail'!M10</f>
@@ -8412,7 +8484,7 @@
       </c>
       <c r="D7" s="45">
         <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <v>4.5138888888888888E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8468,7 +8540,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C11" s="51" t="str">
         <f>'Journal de travail'!M14</f>
@@ -8476,7 +8548,7 @@
       </c>
       <c r="D11" s="45">
         <f t="shared" si="0"/>
-        <v>1.3888888888888888E-2</v>
+        <v>2.4305555555555556E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8485,7 +8557,7 @@
       </c>
       <c r="D12" s="46">
         <f>SUM(D4:D11)</f>
-        <v>0.12847222222222221</v>
+        <v>0.2951388888888889</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8507,18 +8579,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8784,6 +8844,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8793,20 +8865,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8824,4 +8882,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/X-P_App_183-amizeqiri-CDC.xlsx
+++ b/X-P_App_183-amizeqiri-CDC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps70dji\Desktop\GitHub\P_App_183\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A4B277-63A6-40A2-977A-F9A653440C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8291B60-5C3C-4D12-8952-4A74AC8F68AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -8579,6 +8579,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8844,18 +8856,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8865,6 +8865,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8882,18 +8896,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/X-P_App_183-amizeqiri-CDC.xlsx
+++ b/X-P_App_183-amizeqiri-CDC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps70dji\Desktop\GitHub\P_App_183\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8291B60-5C3C-4D12-8952-4A74AC8F68AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9FF7C5-1024-4486-B2E2-E0F49A52B78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -1982,7 +1982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2394,11 +2394,13 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="str">
+      <c r="A17" s="18">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="40">
+        <v>45413</v>
+      </c>
       <c r="C17" s="36"/>
       <c r="D17" s="44"/>
       <c r="E17" s="19"/>
@@ -8579,18 +8581,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8856,6 +8846,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8865,20 +8867,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8896,4 +8884,18 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/X-P_App_183-amizeqiri-CDC.xlsx
+++ b/X-P_App_183-amizeqiri-CDC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ps70dji\Desktop\GitHub\P_App_183\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9FF7C5-1024-4486-B2E2-E0F49A52B78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC51505-8B47-4909-80D7-D7F2C7B922B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
@@ -1982,7 +1982,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2411,11 +2411,13 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="str">
+      <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="39"/>
+        <v>20</v>
+      </c>
+      <c r="B18" s="39">
+        <v>45427</v>
+      </c>
       <c r="C18" s="35"/>
       <c r="D18" s="43"/>
       <c r="F18" s="48"/>
@@ -2425,11 +2427,13 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="str">
+      <c r="A19" s="18">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="B19" s="40">
+        <v>45434</v>
+      </c>
       <c r="C19" s="36"/>
       <c r="D19" s="44"/>
       <c r="E19" s="19"/>
@@ -8581,6 +8585,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="19" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="f3418dd4ca302601ba73fa17965a3f21">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="http://schemas.microsoft.com/sharepoint/v4" xmlns:ns4="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d82fd028d299635ce1df2d808d1b2ae" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8846,18 +8862,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -8867,6 +8871,20 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2AC923F-FD8C-4D8C-BC85-CA1561E8B39C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8884,18 +8902,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>